--- a/xlsx/form_e_encontros_assocs.xlsx
+++ b/xlsx/form_e_encontros_assocs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Terra_Share\projects\CaVaTeCo_Collect\projects\odk_forms_ilrg_madal\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Terra_Share\projects\CaVaTeCo_Collect\projects\monitor_forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0475F2B7-7E37-4229-ABFF-ECFFE108D2D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D338E33E-28D0-44C5-BF6C-092D200049BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="210">
   <si>
     <t>type</t>
   </si>
@@ -575,9 +575,6 @@
     <t>village_name</t>
   </si>
   <si>
-    <t>Outro povoado (não está na lista)</t>
-  </si>
-  <si>
     <t>select_one_external institutions_meet</t>
   </si>
   <si>
@@ -703,6 +700,9 @@
     <t>terrafirma.jpg</t>
   </si>
   <si>
+    <t>"Novo Madal"</t>
+  </si>
+  <si>
     <t>search('enum_names_madal')</t>
   </si>
   <si>
@@ -710,9 +710,6 @@
   </si>
   <si>
     <t>http://cavateco.terrafirma.co.mz:8080/madal/submission</t>
-  </si>
-  <si>
-    <t>"Novo Madal"</t>
   </si>
 </sst>
 </file>
@@ -2113,10 +2110,10 @@
         <v>103</v>
       </c>
       <c r="B6" s="62" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N6" s="63" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
@@ -2150,7 +2147,7 @@
         <v>108</v>
       </c>
       <c r="O9" s="61" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -2161,7 +2158,7 @@
         <v>109</v>
       </c>
       <c r="C10" s="64" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.25">
@@ -2178,12 +2175,12 @@
         <v>44</v>
       </c>
       <c r="C12" s="64" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="52" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B13" s="51" t="s">
         <v>110</v>
@@ -2209,7 +2206,7 @@
         <v>112</v>
       </c>
       <c r="G14" s="52" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L14" s="40" t="s">
         <v>34</v>
@@ -2415,13 +2412,13 @@
     </row>
     <row r="28" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="46" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B28" s="48" t="s">
         <v>124</v>
       </c>
       <c r="C28" s="46" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D28" s="46" t="s">
         <v>159</v>
@@ -2461,7 +2458,7 @@
     </row>
     <row r="30" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="46" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B30" s="48" t="s">
         <v>128</v>
@@ -2657,7 +2654,7 @@
         <v>22</v>
       </c>
       <c r="M40" s="39" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -2713,11 +2710,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C38" sqref="C38"/>
+      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2963,15 +2960,9 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="49" t="s">
-        <v>119</v>
-      </c>
-      <c r="B27" s="51">
-        <v>1</v>
-      </c>
-      <c r="C27" s="49" t="s">
-        <v>166</v>
-      </c>
+      <c r="A27" s="49"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="49"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="49"/>
@@ -2983,10 +2974,10 @@
         <v>18</v>
       </c>
       <c r="B29" s="50" t="s">
+        <v>193</v>
+      </c>
+      <c r="C29" s="49" t="s">
         <v>194</v>
-      </c>
-      <c r="C29" s="49" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -2997,7 +2988,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="49" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -3011,7 +3002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48A78AF8-B0EC-4A66-A5A6-97CF1CE2E96C}">
   <dimension ref="A1:M843"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A823" workbookViewId="0">
+    <sheetView topLeftCell="A823" workbookViewId="0">
       <selection activeCell="C828" sqref="C828"/>
     </sheetView>
   </sheetViews>
@@ -6155,19 +6146,19 @@
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A589" s="53" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B589" s="55"/>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A590" s="53" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B590" s="55"/>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A591" s="53" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B591" s="55"/>
     </row>
@@ -6191,67 +6182,67 @@
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A596" s="53" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B596" s="55"/>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A597" s="53" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B597" s="55"/>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A598" s="53" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B598" s="55"/>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A599" s="53" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B599" s="55"/>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A600" s="53" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B600" s="55"/>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A601" s="53" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B601" s="55"/>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A602" s="53" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B602" s="55"/>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A603" s="53" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B603" s="55"/>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A604" s="53" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B604" s="55"/>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A605" s="53" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B605" s="55"/>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A606" s="53" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B606" s="55"/>
     </row>
@@ -6260,13 +6251,13 @@
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A608" s="53" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B608" s="55"/>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A609" s="53" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B609" s="55"/>
     </row>
@@ -6275,25 +6266,25 @@
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A611" s="53" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B611" s="55"/>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A612" s="53" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B612" s="55"/>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A613" s="53" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B613" s="55"/>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A614" s="53" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B614" s="55"/>
     </row>
@@ -6302,31 +6293,31 @@
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A616" s="53" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B616" s="55"/>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A617" s="53" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B617" s="55"/>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A618" s="53" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B618" s="55"/>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A619" s="53" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B619" s="55"/>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A620" s="53" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B620" s="55"/>
     </row>
@@ -6335,13 +6326,13 @@
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A622" s="53" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B622" s="55"/>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A623" s="53" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B623" s="55"/>
     </row>
@@ -6471,168 +6462,168 @@
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A644" s="56" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B644" s="57"/>
       <c r="C644" s="56"/>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A645" s="56" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B645" s="57"/>
       <c r="C645" s="56"/>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A647" s="56" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B647" s="55"/>
       <c r="C647" s="56"/>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A648" s="56" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B648" s="55"/>
       <c r="C648" s="56"/>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A649" s="56" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B649" s="55"/>
       <c r="C649" s="56"/>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A650" s="56" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B650" s="55"/>
       <c r="C650" s="56"/>
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A651" s="56" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B651" s="55"/>
       <c r="C651" s="56"/>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A652" s="56" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B652" s="55"/>
       <c r="C652" s="56"/>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A653" s="56" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B653" s="55"/>
       <c r="C653" s="56"/>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A654" s="56" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B654" s="55"/>
       <c r="C654" s="56"/>
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A655" s="56" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B655" s="55"/>
       <c r="C655" s="56"/>
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A656" s="56" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B656" s="55"/>
       <c r="C656" s="56"/>
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A657" s="56" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B657" s="55"/>
       <c r="C657" s="56"/>
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A658" s="56" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B658" s="55"/>
       <c r="C658" s="56"/>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A659" s="56" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B659" s="55"/>
       <c r="C659" s="56"/>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A660" s="56" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B660" s="55"/>
       <c r="C660" s="56"/>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A661" s="56" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B661" s="55"/>
       <c r="C661" s="56"/>
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A662" s="56" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B662" s="55"/>
       <c r="C662" s="56"/>
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A663" s="56" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B663" s="55"/>
       <c r="C663" s="56"/>
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A664" s="56" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B664" s="55"/>
       <c r="C664" s="56"/>
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A665" s="56" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B665" s="55"/>
       <c r="C665" s="56"/>
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A668" s="56" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B668" s="55"/>
       <c r="C668" s="56"/>
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A669" s="56" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B669" s="55"/>
       <c r="C669" s="56"/>
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A670" s="56" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B670" s="55"/>
       <c r="C670" s="56"/>
@@ -6649,483 +6640,483 @@
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A673" s="56" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B673" s="55"/>
       <c r="C673" s="56"/>
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A674" s="56" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B674" s="55"/>
       <c r="C674" s="56"/>
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A675" s="56" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B675" s="55"/>
       <c r="C675" s="56"/>
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A676" s="56" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B676" s="55"/>
       <c r="C676" s="56"/>
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A677" s="56" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B677" s="55"/>
       <c r="C677" s="56"/>
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A678" s="56" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B678" s="55"/>
       <c r="C678" s="56"/>
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A679" s="56" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B679" s="55"/>
       <c r="C679" s="56"/>
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A680" s="56" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B680" s="55"/>
       <c r="C680" s="56"/>
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A681" s="56" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B681" s="55"/>
       <c r="C681" s="56"/>
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A682" s="56" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B682" s="55"/>
       <c r="C682" s="56"/>
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A684" s="56" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B684" s="55"/>
       <c r="C684" s="56"/>
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A685" s="56" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B685" s="55"/>
       <c r="C685" s="56"/>
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A686" s="56" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B686" s="55"/>
       <c r="C686" s="56"/>
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A687" s="56" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B687" s="55"/>
       <c r="C687" s="56"/>
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A688" s="56" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B688" s="55"/>
       <c r="C688" s="56"/>
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A689" s="56" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B689" s="55"/>
       <c r="C689" s="56"/>
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A690" s="56" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B690" s="55"/>
       <c r="C690" s="56"/>
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A691" s="56" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B691" s="55"/>
       <c r="C691" s="56"/>
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A692" s="56" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B692" s="55"/>
       <c r="C692" s="56"/>
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A693" s="56" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B693" s="55"/>
       <c r="C693" s="56"/>
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A694" s="56" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B694" s="55"/>
       <c r="C694" s="56"/>
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A696" s="56" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B696" s="55"/>
       <c r="C696" s="56"/>
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A697" s="56" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B697" s="55"/>
       <c r="C697" s="56"/>
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A698" s="56" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B698" s="55"/>
       <c r="C698" s="56"/>
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A699" s="56" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B699" s="55"/>
       <c r="C699" s="56"/>
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A700" s="56" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B700" s="55"/>
       <c r="C700" s="56"/>
     </row>
     <row r="701" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A701" s="56" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B701" s="55"/>
       <c r="C701" s="56"/>
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A702" s="56" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B702" s="55"/>
       <c r="C702" s="56"/>
     </row>
     <row r="703" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A703" s="56" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B703" s="55"/>
       <c r="C703" s="56"/>
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A704" s="56" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B704" s="55"/>
       <c r="C704" s="56"/>
     </row>
     <row r="705" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A705" s="56" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B705" s="55"/>
       <c r="C705" s="56"/>
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A706" s="56" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B706" s="55"/>
       <c r="C706" s="56"/>
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A707" s="56" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B707" s="55"/>
       <c r="C707" s="56"/>
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A709" s="56" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B709" s="55"/>
       <c r="C709" s="56"/>
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A710" s="56" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B710" s="55"/>
       <c r="C710" s="56"/>
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A711" s="56" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B711" s="55"/>
       <c r="C711" s="56"/>
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A712" s="56" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B712" s="55"/>
       <c r="C712" s="56"/>
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A714" s="56" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B714" s="55"/>
       <c r="C714" s="56"/>
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A715" s="56" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B715" s="55"/>
       <c r="C715" s="56"/>
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A716" s="56" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B716" s="55"/>
       <c r="C716" s="56"/>
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A717" s="56" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B717" s="55"/>
       <c r="C717" s="56"/>
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A718" s="56" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B718" s="55"/>
       <c r="C718" s="56"/>
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A719" s="56" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B719" s="55"/>
       <c r="C719" s="56"/>
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A720" s="56" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B720" s="55"/>
       <c r="C720" s="56"/>
     </row>
     <row r="721" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A721" s="56" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B721" s="55"/>
       <c r="C721" s="56"/>
     </row>
     <row r="722" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A722" s="56" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B722" s="55"/>
       <c r="C722" s="56"/>
     </row>
     <row r="723" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A723" s="56" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B723" s="55"/>
       <c r="C723" s="56"/>
     </row>
     <row r="724" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A724" s="56" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B724" s="55"/>
       <c r="C724" s="56"/>
     </row>
     <row r="725" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A725" s="56" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B725" s="55"/>
       <c r="C725" s="56"/>
     </row>
     <row r="726" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A726" s="56" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B726" s="55"/>
       <c r="C726" s="56"/>
     </row>
     <row r="727" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A727" s="56" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B727" s="55"/>
       <c r="C727" s="56"/>
     </row>
     <row r="728" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A728" s="56" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B728" s="55"/>
       <c r="C728" s="56"/>
     </row>
     <row r="729" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A729" s="56" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B729" s="55"/>
       <c r="C729" s="56"/>
     </row>
     <row r="730" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A730" s="56" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B730" s="55"/>
       <c r="C730" s="56"/>
     </row>
     <row r="731" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A731" s="56" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B731" s="55"/>
       <c r="C731" s="56"/>
     </row>
     <row r="732" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A732" s="56" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B732" s="55"/>
       <c r="C732" s="56"/>
     </row>
     <row r="733" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A733" s="56" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B733" s="55"/>
       <c r="C733" s="56"/>
     </row>
     <row r="734" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A734" s="56" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B734" s="55"/>
       <c r="C734" s="56"/>
     </row>
     <row r="735" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A735" s="56" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B735" s="55"/>
       <c r="C735" s="56"/>
     </row>
     <row r="736" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A736" s="56" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B736" s="55"/>
       <c r="C736" s="56"/>
     </row>
     <row r="737" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A737" s="56" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B737" s="55"/>
       <c r="C737" s="56"/>
     </row>
     <row r="738" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A738" s="56" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B738" s="55"/>
       <c r="C738" s="56"/>
     </row>
     <row r="739" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A739" s="56" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B739" s="55"/>
       <c r="C739" s="56"/>
     </row>
     <row r="740" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A740" s="56" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B740" s="55"/>
       <c r="C740" s="56"/>
     </row>
     <row r="742" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A742" s="56" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B742" s="55"/>
       <c r="C742" s="56"/>
     </row>
     <row r="743" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A743" s="56" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B743" s="55"/>
       <c r="C743" s="56"/>
     </row>
     <row r="744" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A744" s="56" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B744" s="55"/>
       <c r="C744" s="56"/>
     </row>
     <row r="745" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A745" s="56" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B745" s="55"/>
       <c r="C745" s="56"/>
     </row>
     <row r="746" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A746" s="56" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B746" s="55"/>
       <c r="C746" s="56"/>
@@ -7137,63 +7128,63 @@
     </row>
     <row r="748" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A748" s="56" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B748" s="55"/>
       <c r="C748" s="56"/>
     </row>
     <row r="749" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A749" s="56" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B749" s="55"/>
       <c r="C749" s="56"/>
     </row>
     <row r="750" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A750" s="56" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B750" s="55"/>
       <c r="C750" s="56"/>
     </row>
     <row r="751" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A751" s="56" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B751" s="55"/>
       <c r="C751" s="56"/>
     </row>
     <row r="752" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A752" s="56" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B752" s="55"/>
       <c r="C752" s="56"/>
     </row>
     <row r="753" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A753" s="56" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B753" s="55"/>
       <c r="C753" s="56"/>
     </row>
     <row r="754" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A754" s="56" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B754" s="55"/>
       <c r="C754" s="56"/>
     </row>
     <row r="755" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A755" s="56" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B755" s="55"/>
       <c r="C755" s="56"/>
     </row>
     <row r="756" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A756" s="56" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B756" s="55"/>
       <c r="C756" s="56"/>
@@ -7205,112 +7196,112 @@
     </row>
     <row r="758" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A758" s="56" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B758" s="55"/>
       <c r="C758" s="56"/>
     </row>
     <row r="759" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A759" s="56" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B759" s="55"/>
       <c r="C759" s="56"/>
     </row>
     <row r="760" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A760" s="56" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B760" s="55"/>
       <c r="C760" s="56"/>
     </row>
     <row r="761" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A761" s="56" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B761" s="55"/>
       <c r="C761" s="56"/>
     </row>
     <row r="762" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A762" s="56" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B762" s="55"/>
       <c r="C762" s="56"/>
     </row>
     <row r="763" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A763" s="56" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B763" s="55"/>
       <c r="C763" s="56"/>
     </row>
     <row r="764" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A764" s="56" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B764" s="55"/>
       <c r="C764" s="56"/>
     </row>
     <row r="765" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A765" s="56" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B765" s="55"/>
       <c r="C765" s="56"/>
     </row>
     <row r="766" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A766" s="56" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B766" s="55"/>
       <c r="C766" s="56"/>
     </row>
     <row r="767" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A767" s="56" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B767" s="55"/>
       <c r="C767" s="56"/>
     </row>
     <row r="768" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A768" s="56" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B768" s="55"/>
       <c r="C768" s="56"/>
     </row>
     <row r="769" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A769" s="56" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B769" s="55"/>
       <c r="C769" s="56"/>
     </row>
     <row r="770" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A770" s="56" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B770" s="55"/>
       <c r="C770" s="56"/>
     </row>
     <row r="771" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A771" s="56" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B771" s="55"/>
       <c r="C771" s="56"/>
     </row>
     <row r="772" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A772" s="56" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B772" s="55"/>
       <c r="C772" s="56"/>
     </row>
     <row r="773" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A773" s="56" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B773" s="55"/>
       <c r="C773" s="56"/>
@@ -7322,147 +7313,147 @@
     </row>
     <row r="775" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A775" s="56" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B775" s="55"/>
       <c r="C775" s="56"/>
     </row>
     <row r="776" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A776" s="56" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B776" s="55"/>
       <c r="C776" s="56"/>
     </row>
     <row r="777" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A777" s="56" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B777" s="55"/>
       <c r="C777" s="56"/>
     </row>
     <row r="778" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A778" s="56" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B778" s="55"/>
       <c r="C778" s="56"/>
     </row>
     <row r="779" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A779" s="56" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B779" s="55"/>
       <c r="C779" s="56"/>
     </row>
     <row r="780" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A780" s="56" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B780" s="55"/>
       <c r="C780" s="56"/>
     </row>
     <row r="781" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A781" s="56" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B781" s="55"/>
       <c r="C781" s="56"/>
     </row>
     <row r="782" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A782" s="56" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B782" s="55"/>
       <c r="C782" s="56"/>
     </row>
     <row r="783" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A783" s="56" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B783" s="55"/>
       <c r="C783" s="56"/>
     </row>
     <row r="784" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A784" s="56" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B784" s="55"/>
       <c r="C784" s="56"/>
     </row>
     <row r="785" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A785" s="56" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B785" s="55"/>
       <c r="C785" s="56"/>
     </row>
     <row r="786" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A786" s="56" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B786" s="55"/>
       <c r="C786" s="56"/>
     </row>
     <row r="787" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A787" s="56" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B787" s="55"/>
       <c r="C787" s="56"/>
     </row>
     <row r="788" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A788" s="56" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B788" s="55"/>
       <c r="C788" s="56"/>
     </row>
     <row r="789" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A789" s="56" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B789" s="55"/>
       <c r="C789" s="56"/>
     </row>
     <row r="790" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A790" s="56" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B790" s="55"/>
       <c r="C790" s="56"/>
     </row>
     <row r="791" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A791" s="56" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B791" s="55"/>
       <c r="C791" s="56"/>
     </row>
     <row r="792" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A792" s="56" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B792" s="55"/>
       <c r="C792" s="56"/>
     </row>
     <row r="793" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A793" s="56" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B793" s="55"/>
       <c r="C793" s="56"/>
     </row>
     <row r="794" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A794" s="56" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B794" s="55"/>
       <c r="C794" s="56"/>
     </row>
     <row r="795" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A795" s="56" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B795" s="55"/>
       <c r="C795" s="56"/>
@@ -7474,14 +7465,14 @@
     </row>
     <row r="797" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A797" s="56" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B797" s="55"/>
       <c r="C797" s="56"/>
     </row>
     <row r="798" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A798" s="56" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B798" s="55"/>
       <c r="C798" s="56"/>
@@ -7493,21 +7484,21 @@
     </row>
     <row r="800" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A800" s="56" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B800" s="55"/>
       <c r="C800" s="56"/>
     </row>
     <row r="801" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A801" s="56" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B801" s="55"/>
       <c r="C801" s="56"/>
     </row>
     <row r="803" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A803" s="56" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B803" s="55"/>
       <c r="C803" s="56"/>
@@ -7517,7 +7508,7 @@
     </row>
     <row r="804" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A804" s="56" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B804" s="55"/>
       <c r="C804" s="56"/>
@@ -7527,7 +7518,7 @@
     </row>
     <row r="805" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A805" s="56" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B805" s="55"/>
       <c r="C805" s="56"/>
@@ -7537,7 +7528,7 @@
     </row>
     <row r="806" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A806" s="56" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B806" s="55"/>
       <c r="C806" s="56"/>
@@ -7547,7 +7538,7 @@
     </row>
     <row r="807" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A807" s="56" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B807" s="55"/>
       <c r="C807" s="56"/>
@@ -7557,7 +7548,7 @@
     </row>
     <row r="808" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A808" s="56" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B808" s="55"/>
       <c r="C808" s="56"/>
@@ -7567,7 +7558,7 @@
     </row>
     <row r="809" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A809" s="56" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B809" s="55"/>
       <c r="C809" s="56"/>
@@ -7577,7 +7568,7 @@
     </row>
     <row r="810" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A810" s="56" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B810" s="55"/>
       <c r="C810" s="56"/>
@@ -7587,7 +7578,7 @@
     </row>
     <row r="811" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A811" s="56" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B811" s="55"/>
       <c r="C811" s="56"/>
@@ -7597,7 +7588,7 @@
     </row>
     <row r="812" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A812" s="56" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B812" s="55"/>
       <c r="C812" s="56"/>
@@ -7691,98 +7682,98 @@
     </row>
     <row r="828" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A828" s="53" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B828" s="55"/>
       <c r="C828" s="58"/>
     </row>
     <row r="829" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A829" s="53" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B829" s="55"/>
       <c r="C829" s="56"/>
     </row>
     <row r="830" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A830" s="53" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B830" s="55"/>
       <c r="C830" s="56"/>
     </row>
     <row r="831" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A831" s="53" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B831" s="55"/>
       <c r="C831" s="56"/>
     </row>
     <row r="832" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A832" s="53" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B832" s="55"/>
       <c r="C832" s="56"/>
     </row>
     <row r="833" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A833" s="53" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B833" s="55"/>
       <c r="C833" s="56"/>
     </row>
     <row r="834" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A834" s="53" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B834" s="55"/>
       <c r="C834" s="56"/>
     </row>
     <row r="835" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A835" s="56" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B835" s="55"/>
       <c r="C835" s="56"/>
     </row>
     <row r="837" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A837" s="53" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B837" s="55"/>
       <c r="C837" s="58"/>
     </row>
     <row r="838" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A838" s="53" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B838" s="55"/>
       <c r="C838" s="56"/>
     </row>
     <row r="839" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A839" s="53" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B839" s="55"/>
       <c r="C839" s="56"/>
     </row>
     <row r="840" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A840" s="53" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B840" s="55"/>
       <c r="C840" s="56"/>
     </row>
     <row r="842" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A842" s="56" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B842" s="55"/>
       <c r="C842" s="56"/>
     </row>
     <row r="843" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A843" s="56" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B843" s="55"/>
       <c r="C843" s="56"/>
@@ -7798,7 +7789,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7821,7 +7812,7 @@
         <v>56</v>
       </c>
       <c r="D1" s="44" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>26</v>
@@ -7829,13 +7820,13 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>172</v>
-      </c>
       <c r="C2" s="59">
-        <v>202009211</v>
+        <v>202101081</v>
       </c>
       <c r="D2" s="60" t="s">
         <v>209</v>
